--- a/snakemake/meta/meta.xlsx
+++ b/snakemake/meta/meta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rui/Dropbox (UMass Medical School)/projects/OneStopRNAseq/OneStopRNAseq_mac/snakemake/meta/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/T5/Dropbox (UMass Medical School)/projects/OneStopRNAseq/OneStopRNAseq_mac/snakemake/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A516DA-475B-3944-BEEC-AEA4A11956F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB00E674-E05F-1B45-B17E-FCAED43D1C2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="28340" xr2:uid="{B12AF396-C96E-44D7-9EB8-1B46E0EECA2A}"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="26940" xr2:uid="{B12AF396-C96E-44D7-9EB8-1B46E0EECA2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -495,13 +495,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7195E0-7987-4741-8EEA-5CA7C29AB060}">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="246" zoomScaleNormal="246" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
     <col min="2" max="2" width="21.1640625" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
   </cols>

--- a/snakemake/meta/meta.xlsx
+++ b/snakemake/meta/meta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/T5/Dropbox (UMass Medical School)/projects/OneStopRNAseq/OneStopRNAseq_mac/snakemake/meta/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rui/Downloads/debug/osr/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB00E674-E05F-1B45-B17E-FCAED43D1C2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F58A82-1750-9140-A271-A0DBB91C92C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="26940" xr2:uid="{B12AF396-C96E-44D7-9EB8-1B46E0EECA2A}"/>
+    <workbookView xWindow="4660" yWindow="1860" windowWidth="25600" windowHeight="26940" xr2:uid="{B12AF396-C96E-44D7-9EB8-1B46E0EECA2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,58 +44,58 @@
     <t>BATCH</t>
   </si>
   <si>
-    <t>KO_D0_1_S2</t>
-  </si>
-  <si>
     <t>KO_D0</t>
   </si>
   <si>
-    <t>KO_D0_2_S8</t>
-  </si>
-  <si>
-    <t>KO_D2_1_S4</t>
-  </si>
-  <si>
     <t>KO_D2</t>
   </si>
   <si>
-    <t>KO_D2_2_S10</t>
-  </si>
-  <si>
-    <t>KO_D8_1_S6</t>
-  </si>
-  <si>
     <t>KO_D8</t>
   </si>
   <si>
-    <t>KO_D8_2_S12</t>
-  </si>
-  <si>
-    <t>WT_D0_1_S1</t>
-  </si>
-  <si>
     <t>WT_D0</t>
   </si>
   <si>
-    <t>WT_D0_2_S7</t>
-  </si>
-  <si>
-    <t>WT_D2_1_S3</t>
-  </si>
-  <si>
     <t>WT_D2</t>
   </si>
   <si>
-    <t>WT_D2_2_S9</t>
-  </si>
-  <si>
-    <t>WT_D8_1_S5</t>
-  </si>
-  <si>
     <t>WT_D8</t>
   </si>
   <si>
-    <t>WT_D8_2_S11</t>
+    <t>KO_D2_1</t>
+  </si>
+  <si>
+    <t>KO_D2_2</t>
+  </si>
+  <si>
+    <t>KO_D8_1</t>
+  </si>
+  <si>
+    <t>KO_D8_2</t>
+  </si>
+  <si>
+    <t>WT_D0_1</t>
+  </si>
+  <si>
+    <t>WT_D0_2</t>
+  </si>
+  <si>
+    <t>WT_D2_1</t>
+  </si>
+  <si>
+    <t>WT_D2_2</t>
+  </si>
+  <si>
+    <t>WT_D8_1</t>
+  </si>
+  <si>
+    <t>WT_D8_2</t>
+  </si>
+  <si>
+    <t>KO_D0_1</t>
+  </si>
+  <si>
+    <t>KO_D0_2</t>
   </si>
 </sst>
 </file>
@@ -167,15 +167,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -496,7 +493,7 @@
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -506,7 +503,7 @@
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -517,133 +514,133 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
@@ -715,94 +712,94 @@
       <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="4"/>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="4"/>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="3"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="4"/>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="3"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
       <c r="C33" s="1"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
       <c r="C34" s="1"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
       <c r="C35" s="1"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="4"/>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="3"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="4"/>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="3"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="4"/>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="3"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
       <c r="C39" s="1"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
       <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
       <c r="C41" s="1"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="4"/>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="3"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="4"/>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="3"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="4"/>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/snakemake/meta/meta.xlsx
+++ b/snakemake/meta/meta.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rui/Downloads/debug/osr/meta/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rui/github/OneStopRNAseq/snakemake/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F58A82-1750-9140-A271-A0DBB91C92C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE522FD1-45F4-A245-82BB-219F84E077EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4660" yWindow="1860" windowWidth="25600" windowHeight="26940" xr2:uid="{B12AF396-C96E-44D7-9EB8-1B46E0EECA2A}"/>
   </bookViews>
@@ -167,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -175,7 +175,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7195E0-7987-4741-8EEA-5CA7C29AB060}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -646,161 +645,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="3"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="3"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="3"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="3"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="3"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="3"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
